--- a/导入模版.xlsx
+++ b/导入模版.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangmengjia/Desktop/ws_client/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="3180" windowWidth="29320" windowHeight="19100"/>
+    <workbookView xWindow="1935" yWindow="3180" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>推荐人</t>
   </si>
@@ -147,17 +142,42 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>gg1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,29 +517,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" zoomScalePageLayoutView="166" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.83203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="25.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -566,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -619,7 +639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
@@ -627,24 +647,100 @@
         <v>33</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
